--- a/Model2/excel/output_elasticity_model_tempory.xlsx
+++ b/Model2/excel/output_elasticity_model_tempory.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="balance" sheetId="1" r:id="rId1"/>
+    <sheet name="factor" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -22,7 +22,7 @@
     <t>P</t>
   </si>
   <si>
-    <t>T</t>
+    <t>H</t>
   </si>
   <si>
     <t>Z</t>
@@ -417,7 +417,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>57.7732926536858</v>
+        <v>3.16390672532187</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -431,7 +431,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>57.7732926536858</v>
+        <v>1.42268249122744</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -445,7 +445,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>57.7732926536858</v>
+        <v>4.03740458026134</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -459,7 +459,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>57.7732926536858</v>
+        <v>1.58738066592972</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -473,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>57.7732926536857</v>
+        <v>0.325471461962522</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -487,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>57.7732926536858</v>
+        <v>0.410763452446215</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -501,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <v>57.7732926536858</v>
+        <v>2.34871021273854</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -515,7 +515,7 @@
         <v>4</v>
       </c>
       <c r="D9">
-        <v>57.7732926536858</v>
+        <v>4.2945936253683</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -529,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <v>85.080898219207</v>
+        <v>3.39437984478185</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -543,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <v>85.080898219207</v>
+        <v>1.97878196637808</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -557,7 +557,7 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>85.080898219207</v>
+        <v>1.47714602967228</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="D13">
-        <v>85.080898219207</v>
+        <v>1.62937321509689</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -585,7 +585,7 @@
         <v>4</v>
       </c>
       <c r="D14">
-        <v>85.080898219207</v>
+        <v>1.68451707620433</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -599,7 +599,7 @@
         <v>4</v>
       </c>
       <c r="D15">
-        <v>85.080898219207</v>
+        <v>1.65349067362643</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -613,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="D16">
-        <v>57.7732926536858</v>
+        <v>1.30695716135039</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -627,7 +627,7 @@
         <v>4</v>
       </c>
       <c r="D17">
-        <v>85.0197693897448</v>
+        <v>1.85790019106474</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -641,7 +641,7 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <v>85.080898219207</v>
+        <v>0.389994235891373</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -655,7 +655,7 @@
         <v>4</v>
       </c>
       <c r="D19">
-        <v>85.080898219207</v>
+        <v>1.83545004035294</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -669,7 +669,7 @@
         <v>4</v>
       </c>
       <c r="D20">
-        <v>85.080898219207</v>
+        <v>-18.0720384231471</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -683,7 +683,7 @@
         <v>4</v>
       </c>
       <c r="D21">
-        <v>85.080898219207</v>
+        <v>8.71903193391812</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -697,7 +697,7 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <v>1408.36856945208</v>
+        <v>1.31467335200146</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -711,7 +711,7 @@
         <v>4</v>
       </c>
       <c r="D23">
-        <v>85.080898219207</v>
+        <v>0.675472616164354</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -725,7 +725,7 @@
         <v>4</v>
       </c>
       <c r="D24">
-        <v>85.080898219207</v>
+        <v>2.21191403426589</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -739,7 +739,7 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <v>57.7732926536858</v>
+        <v>1.71272421532561</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -753,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="D26">
-        <v>57.7732926536858</v>
+        <v>3.31407680296824</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -767,7 +767,7 @@
         <v>4</v>
       </c>
       <c r="D27">
-        <v>46.4779594837004</v>
+        <v>1.41341762061694</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -781,7 +781,7 @@
         <v>4</v>
       </c>
       <c r="D28">
-        <v>46.4779594837004</v>
+        <v>4.04927553177559</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -795,7 +795,7 @@
         <v>4</v>
       </c>
       <c r="D29">
-        <v>46.4779594837004</v>
+        <v>1.5989659817923</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -809,7 +809,7 @@
         <v>4</v>
       </c>
       <c r="D30">
-        <v>55.6151993551708</v>
+        <v>0.326407189137108</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -823,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="D31">
-        <v>57.7732926536858</v>
+        <v>0.412202984082465</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -837,7 +837,7 @@
         <v>4</v>
       </c>
       <c r="D32">
-        <v>57.7732926536858</v>
+        <v>2.28753101506289</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -851,7 +851,7 @@
         <v>4</v>
       </c>
       <c r="D33">
-        <v>57.7732926536858</v>
+        <v>4.18349015755989</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -865,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="D34">
-        <v>57.7732926536858</v>
+        <v>3.29898299909835</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -879,7 +879,7 @@
         <v>4</v>
       </c>
       <c r="D35">
-        <v>85.080898219207</v>
+        <v>1.97048462665231</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -893,7 +893,7 @@
         <v>4</v>
       </c>
       <c r="D36">
-        <v>61.9222541648735</v>
+        <v>1.47597840603053</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -907,7 +907,7 @@
         <v>4</v>
       </c>
       <c r="D37">
-        <v>57.7732926536858</v>
+        <v>1.62664962500905</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -921,7 +921,7 @@
         <v>4</v>
       </c>
       <c r="D38">
-        <v>57.7732926536858</v>
+        <v>1.69661074582762</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -935,7 +935,7 @@
         <v>4</v>
       </c>
       <c r="D39">
-        <v>57.7732926536858</v>
+        <v>1.61400107776911</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -949,7 +949,7 @@
         <v>4</v>
       </c>
       <c r="D40">
-        <v>57.7732926536858</v>
+        <v>1.34724227701547</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="D41">
-        <v>57.7732926536858</v>
+        <v>1.8512879286162</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -977,7 +977,7 @@
         <v>4</v>
       </c>
       <c r="D42">
-        <v>57.7732926536858</v>
+        <v>0.391661357700953</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -991,7 +991,7 @@
         <v>4</v>
       </c>
       <c r="D43">
-        <v>57.7732926536858</v>
+        <v>1.8422452632687</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1005,7 +1005,7 @@
         <v>4</v>
       </c>
       <c r="D44">
-        <v>57.7732926536858</v>
+        <v>-17.8961992269189</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1019,7 +1019,7 @@
         <v>4</v>
       </c>
       <c r="D45">
-        <v>57.7732926536858</v>
+        <v>8.7205629821023</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1033,7 +1033,7 @@
         <v>4</v>
       </c>
       <c r="D46">
-        <v>57.7732926536858</v>
+        <v>1.32718192811943</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1047,7 +1047,7 @@
         <v>4</v>
       </c>
       <c r="D47">
-        <v>57.7732926536858</v>
+        <v>0.664690264653547</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1061,7 +1061,7 @@
         <v>4</v>
       </c>
       <c r="D48">
-        <v>57.7732926536858</v>
+        <v>2.22240707152518</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1075,7 +1075,7 @@
         <v>4</v>
       </c>
       <c r="D49">
-        <v>57.7689462756843</v>
+        <v>1.74110830654062</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1089,7 +1089,7 @@
         <v>4</v>
       </c>
       <c r="D50">
-        <v>57.7732926536858</v>
+        <v>3.26963486498654</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1103,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="D51">
-        <v>57.7732926536858</v>
+        <v>1.42014251251438</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1117,7 +1117,7 @@
         <v>4</v>
       </c>
       <c r="D52">
-        <v>46.4779594837004</v>
+        <v>4.05859303403601</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1131,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="D53">
-        <v>46.4779594837004</v>
+        <v>1.5993927173192</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1145,7 +1145,7 @@
         <v>4</v>
       </c>
       <c r="D54">
-        <v>46.4779594837004</v>
+        <v>0.327368145387905</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1159,7 +1159,7 @@
         <v>4</v>
       </c>
       <c r="D55">
-        <v>46.4779594837004</v>
+        <v>0.414169853346604</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1173,7 +1173,7 @@
         <v>4</v>
       </c>
       <c r="D56">
-        <v>46.4779594837004</v>
+        <v>2.33222014101324</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1187,7 +1187,7 @@
         <v>4</v>
       </c>
       <c r="D57">
-        <v>46.4779594837005</v>
+        <v>4.24486986633003</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1201,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="D58">
-        <v>69.6961443331147</v>
+        <v>3.35742091052861</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1215,7 +1215,7 @@
         <v>4</v>
       </c>
       <c r="D59">
-        <v>57.7732926536858</v>
+        <v>1.96012160527098</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1229,7 +1229,7 @@
         <v>4</v>
       </c>
       <c r="D60">
-        <v>57.7732926536858</v>
+        <v>1.52120800683456</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1243,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="D61">
-        <v>57.7732926536858</v>
+        <v>1.58690937957151</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1257,7 +1257,7 @@
         <v>4</v>
       </c>
       <c r="D62">
-        <v>57.7732926536858</v>
+        <v>1.68960792020385</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1271,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="D63">
-        <v>57.7732926536858</v>
+        <v>1.62446281776209</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1285,7 +1285,7 @@
         <v>4</v>
       </c>
       <c r="D64">
-        <v>57.7732926536858</v>
+        <v>1.35654244037147</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1299,7 +1299,7 @@
         <v>4</v>
       </c>
       <c r="D65">
-        <v>57.7732926536858</v>
+        <v>1.85850709305493</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1313,7 +1313,7 @@
         <v>4</v>
       </c>
       <c r="D66">
-        <v>57.7732926536858</v>
+        <v>0.384652598665541</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1327,7 +1327,7 @@
         <v>4</v>
       </c>
       <c r="D67">
-        <v>57.7732926536858</v>
+        <v>1.81313888605982</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1341,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="D68">
-        <v>57.7732926536858</v>
+        <v>-17.8311732634422</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1355,7 +1355,7 @@
         <v>4</v>
       </c>
       <c r="D69">
-        <v>57.7732926536858</v>
+        <v>8.77368867423878</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1369,7 +1369,7 @@
         <v>4</v>
       </c>
       <c r="D70">
-        <v>57.7732926536858</v>
+        <v>1.32698196826156</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1383,7 +1383,7 @@
         <v>4</v>
       </c>
       <c r="D71">
-        <v>57.7732926536858</v>
+        <v>0.67046700335397</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1397,7 +1397,7 @@
         <v>4</v>
       </c>
       <c r="D72">
-        <v>57.7732926536858</v>
+        <v>2.18947346271371</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1411,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="D73">
-        <v>57.7732926536858</v>
+        <v>1.71394849783189</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1425,7 +1425,7 @@
         <v>4</v>
       </c>
       <c r="D74">
-        <v>57.7732926536858</v>
+        <v>3.3136023676367</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1439,7 +1439,7 @@
         <v>4</v>
       </c>
       <c r="D75">
-        <v>57.7732926536858</v>
+        <v>1.42321691273111</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1453,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="D76">
-        <v>57.7732926536858</v>
+        <v>4.01546574902289</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1467,7 +1467,7 @@
         <v>4</v>
       </c>
       <c r="D77">
-        <v>57.7732926536858</v>
+        <v>1.60366993656196</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1481,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="D78">
-        <v>46.4779594837004</v>
+        <v>0.324497312984731</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1495,7 +1495,7 @@
         <v>4</v>
       </c>
       <c r="D79">
-        <v>46.4779594837004</v>
+        <v>0.41093127543674</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1509,7 +1509,7 @@
         <v>4</v>
       </c>
       <c r="D80">
-        <v>46.4779594837005</v>
+        <v>2.34037114003554</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1523,7 +1523,7 @@
         <v>4</v>
       </c>
       <c r="D81">
-        <v>57.7732926536858</v>
+        <v>4.2067481235467</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1537,7 +1537,7 @@
         <v>4</v>
       </c>
       <c r="D82">
-        <v>63.4209592386784</v>
+        <v>3.30577549671173</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1551,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="D83">
-        <v>85.0808982192068</v>
+        <v>1.98285969050244</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1565,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="D84">
-        <v>85.080898219207</v>
+        <v>1.47844150614843</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1579,7 +1579,7 @@
         <v>4</v>
       </c>
       <c r="D85">
-        <v>85.080898219207</v>
+        <v>1.62736344731676</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1593,7 +1593,7 @@
         <v>4</v>
       </c>
       <c r="D86">
-        <v>85.080898219207</v>
+        <v>1.70083589562264</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1607,7 +1607,7 @@
         <v>4</v>
       </c>
       <c r="D87">
-        <v>85.080898219207</v>
+        <v>1.61082159093091</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1621,7 +1621,7 @@
         <v>4</v>
       </c>
       <c r="D88">
-        <v>85.080898219207</v>
+        <v>1.33662820159707</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1635,7 +1635,7 @@
         <v>4</v>
       </c>
       <c r="D89">
-        <v>85.080898219207</v>
+        <v>1.87973450270713</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1649,7 +1649,7 @@
         <v>4</v>
       </c>
       <c r="D90">
-        <v>57.7732926536858</v>
+        <v>0.381293300643268</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1663,7 +1663,7 @@
         <v>4</v>
       </c>
       <c r="D91">
-        <v>57.7732926536858</v>
+        <v>1.81209830427103</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1677,7 +1677,7 @@
         <v>4</v>
       </c>
       <c r="D92">
-        <v>57.7732926536858</v>
+        <v>-17.0901495554727</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1691,7 +1691,7 @@
         <v>4</v>
       </c>
       <c r="D93">
-        <v>57.7732926536858</v>
+        <v>9.08785447311371</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1705,7 +1705,7 @@
         <v>4</v>
       </c>
       <c r="D94">
-        <v>57.7732926536858</v>
+        <v>1.3094706320171</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1719,7 +1719,7 @@
         <v>4</v>
       </c>
       <c r="D95">
-        <v>57.7732926536858</v>
+        <v>0.660236032597067</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1733,7 +1733,7 @@
         <v>4</v>
       </c>
       <c r="D96">
-        <v>57.7732926536858</v>
+        <v>2.20248415049106</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1747,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="D97">
-        <v>57.7732926536858</v>
+        <v>1.74334016387371</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1761,7 +1761,7 @@
         <v>4</v>
       </c>
       <c r="D98">
-        <v>57.7732926536858</v>
+        <v>3.28005884734708</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1775,7 +1775,7 @@
         <v>4</v>
       </c>
       <c r="D99">
-        <v>57.7732926536858</v>
+        <v>1.44051454017336</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1789,7 +1789,7 @@
         <v>4</v>
       </c>
       <c r="D100">
-        <v>57.7732926536858</v>
+        <v>3.98830234627691</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1803,7 +1803,7 @@
         <v>4</v>
       </c>
       <c r="D101">
-        <v>57.7468334106222</v>
+        <v>1.62951467947027</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1817,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="D102">
-        <v>57.7732926536858</v>
+        <v>0.330768883736144</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1831,7 +1831,7 @@
         <v>4</v>
       </c>
       <c r="D103">
-        <v>57.7732926536858</v>
+        <v>0.409080202122018</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1845,7 +1845,7 @@
         <v>4</v>
       </c>
       <c r="D104">
-        <v>57.7732926536858</v>
+        <v>2.47059224023882</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1859,7 +1859,7 @@
         <v>4</v>
       </c>
       <c r="D105">
-        <v>57.7732926536858</v>
+        <v>4.06665429941029</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1873,7 +1873,7 @@
         <v>4</v>
       </c>
       <c r="D106">
-        <v>57.7732926536858</v>
+        <v>3.08623724051572</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1887,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="D107">
-        <v>57.7732926536858</v>
+        <v>1.88413959572408</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1901,7 +1901,7 @@
         <v>4</v>
       </c>
       <c r="D108">
-        <v>57.7732926536858</v>
+        <v>1.47060556106508</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1915,7 +1915,7 @@
         <v>4</v>
       </c>
       <c r="D109">
-        <v>57.7732926536858</v>
+        <v>1.63621634759974</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1929,7 +1929,7 @@
         <v>4</v>
       </c>
       <c r="D110">
-        <v>57.7732926536858</v>
+        <v>1.69075144510576</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1943,7 +1943,7 @@
         <v>4</v>
       </c>
       <c r="D111">
-        <v>57.7732926536858</v>
+        <v>1.6661312325878</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1957,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="D112">
-        <v>57.7732926536858</v>
+        <v>1.32401449711288</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1971,7 +1971,7 @@
         <v>4</v>
       </c>
       <c r="D113">
-        <v>57.7732926536858</v>
+        <v>1.84077250808828</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1985,7 +1985,7 @@
         <v>4</v>
       </c>
       <c r="D114">
-        <v>57.7732926536858</v>
+        <v>0.389946292806174</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1999,7 +1999,7 @@
         <v>4</v>
       </c>
       <c r="D115">
-        <v>57.7732926536858</v>
+        <v>1.81500227462244</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2013,7 +2013,7 @@
         <v>4</v>
       </c>
       <c r="D116">
-        <v>57.7732926536858</v>
+        <v>-17.0512262362569</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2027,7 +2027,7 @@
         <v>4</v>
       </c>
       <c r="D117">
-        <v>57.7732926536858</v>
+        <v>8.67984533407087</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2041,7 +2041,7 @@
         <v>4</v>
       </c>
       <c r="D118">
-        <v>85.080898219207</v>
+        <v>1.33950292035592</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2055,7 +2055,7 @@
         <v>4</v>
       </c>
       <c r="D119">
-        <v>57.7732926536858</v>
+        <v>0.665938835626565</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2069,7 +2069,7 @@
         <v>4</v>
       </c>
       <c r="D120">
-        <v>57.7732926536858</v>
+        <v>2.16193123158988</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2083,7 +2083,7 @@
         <v>4</v>
       </c>
       <c r="D121">
-        <v>57.7732926536858</v>
+        <v>1.70957196941191</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2097,7 +2097,7 @@
         <v>4</v>
       </c>
       <c r="D122">
-        <v>57.7732926536858</v>
+        <v>3.33297297289891</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2111,7 +2111,7 @@
         <v>4</v>
       </c>
       <c r="D123">
-        <v>57.7732926536858</v>
+        <v>1.42719781810763</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2125,7 +2125,7 @@
         <v>4</v>
       </c>
       <c r="D124">
-        <v>56.9199299797632</v>
+        <v>4.04801320630243</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2139,7 +2139,7 @@
         <v>4</v>
       </c>
       <c r="D125">
-        <v>57.7732926536858</v>
+        <v>1.62401355364156</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2153,7 +2153,7 @@
         <v>4</v>
       </c>
       <c r="D126">
-        <v>46.4779594837004</v>
+        <v>0.332974572648484</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2167,7 +2167,7 @@
         <v>4</v>
       </c>
       <c r="D127">
-        <v>46.4779594837004</v>
+        <v>0.411591744532436</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2181,7 +2181,7 @@
         <v>4</v>
       </c>
       <c r="D128">
-        <v>46.4779594837004</v>
+        <v>2.49872737086595</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2195,7 +2195,7 @@
         <v>4</v>
       </c>
       <c r="D129">
-        <v>46.4779594837004</v>
+        <v>4.06311897636375</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2209,7 +2209,7 @@
         <v>4</v>
       </c>
       <c r="D130">
-        <v>29.2535096008385</v>
+        <v>3.02693344555695</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2223,7 +2223,7 @@
         <v>4</v>
       </c>
       <c r="D131">
-        <v>46.4779594837004</v>
+        <v>1.7901633691369</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2237,7 +2237,7 @@
         <v>4</v>
       </c>
       <c r="D132">
-        <v>46.4779594837004</v>
+        <v>1.44525499320877</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2251,7 +2251,7 @@
         <v>4</v>
       </c>
       <c r="D133">
-        <v>46.4779594837004</v>
+        <v>1.67222858024003</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2265,7 +2265,7 @@
         <v>4</v>
       </c>
       <c r="D134">
-        <v>46.4779594837004</v>
+        <v>1.69331679384739</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2279,7 +2279,7 @@
         <v>4</v>
       </c>
       <c r="D135">
-        <v>46.4779594837004</v>
+        <v>1.65188780128495</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2293,7 +2293,7 @@
         <v>4</v>
       </c>
       <c r="D136">
-        <v>46.4779594837004</v>
+        <v>1.32926306158059</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2307,7 +2307,7 @@
         <v>4</v>
       </c>
       <c r="D137">
-        <v>46.4779594837004</v>
+        <v>1.84812638752063</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2321,7 +2321,7 @@
         <v>4</v>
       </c>
       <c r="D138">
-        <v>46.4779594837004</v>
+        <v>0.385810528038785</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2335,7 +2335,7 @@
         <v>4</v>
       </c>
       <c r="D139">
-        <v>46.4779594837004</v>
+        <v>1.80105314319236</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2349,7 +2349,7 @@
         <v>4</v>
       </c>
       <c r="D140">
-        <v>46.4779594837004</v>
+        <v>-18.5293549396184</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2363,7 +2363,7 @@
         <v>4</v>
       </c>
       <c r="D141">
-        <v>46.4779594837004</v>
+        <v>8.22637524166867</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2377,7 +2377,7 @@
         <v>4</v>
       </c>
       <c r="D142">
-        <v>73.5095299303907</v>
+        <v>1.36257254781863</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2391,7 +2391,7 @@
         <v>4</v>
       </c>
       <c r="D143">
-        <v>46.4779594837004</v>
+        <v>0.666836384800678</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2405,7 +2405,7 @@
         <v>4</v>
       </c>
       <c r="D144">
-        <v>46.4779594837004</v>
+        <v>2.1640342960601</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2419,7 +2419,7 @@
         <v>4</v>
       </c>
       <c r="D145">
-        <v>46.4779594837004</v>
+        <v>1.72924370336206</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2433,7 +2433,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>46.4779594837004</v>
+        <v>3.32781049683971</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2447,7 +2447,7 @@
         <v>4</v>
       </c>
       <c r="D147">
-        <v>46.4779594837004</v>
+        <v>1.41475044041294</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2461,7 +2461,7 @@
         <v>4</v>
       </c>
       <c r="D148">
-        <v>41.0716453943624</v>
+        <v>4.05311747723999</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2475,7 +2475,7 @@
         <v>4</v>
       </c>
       <c r="D149">
-        <v>24.6410077649175</v>
+        <v>1.60414244825845</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2489,7 +2489,7 @@
         <v>4</v>
       </c>
       <c r="D150">
-        <v>15</v>
+        <v>0.320397950645968</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2503,7 +2503,7 @@
         <v>4</v>
       </c>
       <c r="D151">
-        <v>27.9540824050009</v>
+        <v>0.407447738122574</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2517,7 +2517,7 @@
         <v>4</v>
       </c>
       <c r="D152">
-        <v>46.4779594837004</v>
+        <v>2.29233206626202</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2531,7 +2531,7 @@
         <v>4</v>
       </c>
       <c r="D153">
-        <v>57.7732926536858</v>
+        <v>4.23074732210469</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2545,7 +2545,7 @@
         <v>4</v>
       </c>
       <c r="D154">
-        <v>78.3305643630209</v>
+        <v>3.26868466348674</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2559,7 +2559,7 @@
         <v>4</v>
       </c>
       <c r="D155">
-        <v>57.7732926536858</v>
+        <v>1.9422078030854</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2573,7 +2573,7 @@
         <v>4</v>
       </c>
       <c r="D156">
-        <v>57.7732926536858</v>
+        <v>1.47214568369235</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2587,7 +2587,7 @@
         <v>4</v>
       </c>
       <c r="D157">
-        <v>57.7732926536858</v>
+        <v>1.63992359113691</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2601,7 +2601,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>57.7732926536858</v>
+        <v>1.70151459527551</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2615,7 +2615,7 @@
         <v>4</v>
       </c>
       <c r="D159">
-        <v>57.7732926536858</v>
+        <v>1.59848944637215</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2629,7 +2629,7 @@
         <v>4</v>
       </c>
       <c r="D160">
-        <v>57.7732926536858</v>
+        <v>1.3448412688036</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2643,7 +2643,7 @@
         <v>4</v>
       </c>
       <c r="D161">
-        <v>57.7732926536858</v>
+        <v>1.86343687146406</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2657,7 +2657,7 @@
         <v>4</v>
       </c>
       <c r="D162">
-        <v>57.7732926536858</v>
+        <v>0.383065937815172</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2671,7 +2671,7 @@
         <v>4</v>
       </c>
       <c r="D163">
-        <v>57.7732926536858</v>
+        <v>1.84548209404685</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2685,7 +2685,7 @@
         <v>4</v>
       </c>
       <c r="D164">
-        <v>57.7732926536858</v>
+        <v>-18.4419365847953</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2699,7 +2699,7 @@
         <v>4</v>
       </c>
       <c r="D165">
-        <v>57.7732926536858</v>
+        <v>8.70684510162119</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2713,7 +2713,7 @@
         <v>4</v>
       </c>
       <c r="D166">
-        <v>57.7732926536858</v>
+        <v>1.32781686203095</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2727,7 +2727,7 @@
         <v>4</v>
       </c>
       <c r="D167">
-        <v>57.7732926536858</v>
+        <v>0.663882478681602</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2741,7 +2741,7 @@
         <v>4</v>
       </c>
       <c r="D168">
-        <v>57.7732926536858</v>
+        <v>2.1692468576708</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2755,7 +2755,7 @@
         <v>4</v>
       </c>
       <c r="D169">
-        <v>57.7732926536858</v>
+        <v>1.8515709731733</v>
       </c>
     </row>
   </sheetData>

--- a/Model2/excel/output_elasticity_model_tempory.xlsx
+++ b/Model2/excel/output_elasticity_model_tempory.xlsx
@@ -417,7 +417,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>1.00053115745604</v>
+        <v>0.99752795960967</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -431,7 +431,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>0.999005715233308</v>
+        <v>1.00041707997612</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -445,7 +445,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1.00021022711786</v>
+        <v>0.999777110643517</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -459,7 +459,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>1.00097803290059</v>
+        <v>1.00003853282636</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -473,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>1.00053704739214</v>
+        <v>1.00005184284096</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -487,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>1.0002761595109</v>
+        <v>0.999881270512641</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -501,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <v>1.00014201719551</v>
+        <v>1.00029520359763</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -515,7 +515,7 @@
         <v>4</v>
       </c>
       <c r="D9">
-        <v>1.00020604762035</v>
+        <v>0.999755357574275</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -529,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <v>1.00014402095671</v>
+        <v>0.999164531672981</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -543,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <v>1.00047054400419</v>
+        <v>1.00751598367999</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -557,7 +557,7 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>1.00076424896802</v>
+        <v>1.0376828343219</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="D13">
-        <v>1.00003579238901</v>
+        <v>1.00206176497351</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -585,7 +585,7 @@
         <v>4</v>
       </c>
       <c r="D14">
-        <v>1.00005092189973</v>
+        <v>1.0004574552994</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -599,7 +599,7 @@
         <v>4</v>
       </c>
       <c r="D15">
-        <v>0.999887322368626</v>
+        <v>0.996885993277604</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -613,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="D16">
-        <v>1.00146681683765</v>
+        <v>0.998496078004543</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -627,7 +627,7 @@
         <v>4</v>
       </c>
       <c r="D17">
-        <v>1.00023888096195</v>
+        <v>1.00130691510936</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -641,7 +641,7 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <v>1.00007418138813</v>
+        <v>1.00062908736462</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -655,7 +655,7 @@
         <v>4</v>
       </c>
       <c r="D19">
-        <v>0.999962045427873</v>
+        <v>1.0027404354229</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -669,7 +669,7 @@
         <v>4</v>
       </c>
       <c r="D20">
-        <v>1.00015756233931</v>
+        <v>1.00769584502788</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -683,7 +683,7 @@
         <v>4</v>
       </c>
       <c r="D21">
-        <v>1.00015490597351</v>
+        <v>0.997562871404321</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -697,7 +697,7 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <v>0.996288123455437</v>
+        <v>1.00149232244699</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -711,7 +711,7 @@
         <v>4</v>
       </c>
       <c r="D23">
-        <v>0.999655118683554</v>
+        <v>-9689409.71417851</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -725,7 +725,7 @@
         <v>4</v>
       </c>
       <c r="D24">
-        <v>1.00038727172975</v>
+        <v>0.998090987297869</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -739,7 +739,7 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <v>0.999328711582367</v>
+        <v>0.992618580846553</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -753,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="D26">
-        <v>0.999561885155716</v>
+        <v>0.997527959597886</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -767,7 +767,7 @@
         <v>4</v>
       </c>
       <c r="D27">
-        <v>0.998919343297659</v>
+        <v>1.00041707994907</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -781,7 +781,7 @@
         <v>4</v>
       </c>
       <c r="D28">
-        <v>1.00042194272869</v>
+        <v>0.999777110571668</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -795,7 +795,7 @@
         <v>4</v>
       </c>
       <c r="D29">
-        <v>1.00060374870758</v>
+        <v>1.00003853282597</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -809,7 +809,7 @@
         <v>4</v>
       </c>
       <c r="D30">
-        <v>1.00039977079574</v>
+        <v>1.00005184284129</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -823,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="D31">
-        <v>1.00029296226225</v>
+        <v>0.999881270508362</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -837,7 +837,7 @@
         <v>4</v>
       </c>
       <c r="D32">
-        <v>1.00016754526646</v>
+        <v>1.00029520363447</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -851,7 +851,7 @@
         <v>4</v>
       </c>
       <c r="D33">
-        <v>1.0000744875594</v>
+        <v>0.999755357636171</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -865,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="D34">
-        <v>0.999768945811165</v>
+        <v>0.999164531672981</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -879,7 +879,7 @@
         <v>4</v>
       </c>
       <c r="D35">
-        <v>1.00053648489942</v>
+        <v>1.00751598367999</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -893,7 +893,7 @@
         <v>4</v>
       </c>
       <c r="D36">
-        <v>1.00078853478635</v>
+        <v>1.0376828343219</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -907,7 +907,7 @@
         <v>4</v>
       </c>
       <c r="D37">
-        <v>1.00018036257275</v>
+        <v>1.00206176497351</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -921,7 +921,7 @@
         <v>4</v>
       </c>
       <c r="D38">
-        <v>0.999281322671242</v>
+        <v>1.0004574552994</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -935,7 +935,7 @@
         <v>4</v>
       </c>
       <c r="D39">
-        <v>1.00065364940733</v>
+        <v>0.996885993277604</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -949,7 +949,7 @@
         <v>4</v>
       </c>
       <c r="D40">
-        <v>0.998974790604288</v>
+        <v>0.998496078004543</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="D41">
-        <v>1.00006465795164</v>
+        <v>1.00130691510813</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -977,7 +977,7 @@
         <v>4</v>
       </c>
       <c r="D42">
-        <v>1.00005228106146</v>
+        <v>1.00062908736427</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -991,7 +991,7 @@
         <v>4</v>
       </c>
       <c r="D43">
-        <v>0.999736546945392</v>
+        <v>1.0027404353853</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1005,7 +1005,7 @@
         <v>4</v>
       </c>
       <c r="D44">
-        <v>0.999877059835089</v>
+        <v>1.00769584502788</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1019,7 +1019,7 @@
         <v>4</v>
       </c>
       <c r="D45">
-        <v>0.999950216684289</v>
+        <v>0.997562871404321</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1033,7 +1033,7 @@
         <v>4</v>
       </c>
       <c r="D46">
-        <v>0.989274179918403</v>
+        <v>1.00149232238019</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1047,7 +1047,7 @@
         <v>4</v>
       </c>
       <c r="D47">
-        <v>1.00057592775707</v>
+        <v>20282510.9418427</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1061,7 +1061,7 @@
         <v>4</v>
       </c>
       <c r="D48">
-        <v>0.999751118906816</v>
+        <v>0.998090987262864</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1075,7 +1075,7 @@
         <v>4</v>
       </c>
       <c r="D49">
-        <v>1.00091304241437</v>
+        <v>0.992618580623535</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1089,7 +1089,7 @@
         <v>4</v>
       </c>
       <c r="D50">
-        <v>0.999426524429903</v>
+        <v>0.997527959562435</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1103,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="D51">
-        <v>1.00095985739989</v>
+        <v>1.00041707997559</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1117,7 +1117,7 @@
         <v>4</v>
       </c>
       <c r="D52">
-        <v>1.00024380316867</v>
+        <v>0.999777110644167</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1131,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="D53">
-        <v>1.00180086854864</v>
+        <v>1.00003853282637</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1145,7 +1145,7 @@
         <v>4</v>
       </c>
       <c r="D54">
-        <v>0.999778348664267</v>
+        <v>1.00005184284096</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1159,7 +1159,7 @@
         <v>4</v>
       </c>
       <c r="D55">
-        <v>1.00015441973255</v>
+        <v>0.99988127051281</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1173,7 +1173,7 @@
         <v>4</v>
       </c>
       <c r="D56">
-        <v>0.999573826943695</v>
+        <v>1.0002952035992</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1187,7 +1187,7 @@
         <v>4</v>
       </c>
       <c r="D57">
-        <v>1.00006326611189</v>
+        <v>0.99975535762247</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1201,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="D58">
-        <v>0.999654772967286</v>
+        <v>0.999164531612795</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1215,7 +1215,7 @@
         <v>4</v>
       </c>
       <c r="D59">
-        <v>1.00060961292274</v>
+        <v>1.00751598342546</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1229,7 +1229,7 @@
         <v>4</v>
       </c>
       <c r="D60">
-        <v>1.00041245414996</v>
+        <v>1.037682833681</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1243,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="D61">
-        <v>1.00020165491076</v>
+        <v>1.0020617650706</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1257,7 +1257,7 @@
         <v>4</v>
       </c>
       <c r="D62">
-        <v>0.999872708884179</v>
+        <v>1.0004574552994</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1271,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="D63">
-        <v>1.00059491726326</v>
+        <v>0.996885993277604</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1285,7 +1285,7 @@
         <v>4</v>
       </c>
       <c r="D64">
-        <v>1.00021860065905</v>
+        <v>0.998496078005651</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1299,7 +1299,7 @@
         <v>4</v>
       </c>
       <c r="D65">
-        <v>0.999758365217558</v>
+        <v>1.00130691512724</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1313,7 +1313,7 @@
         <v>4</v>
       </c>
       <c r="D66">
-        <v>0.999862231062414</v>
+        <v>1.0006290872281</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1327,7 +1327,7 @@
         <v>4</v>
       </c>
       <c r="D67">
-        <v>0.999728246328958</v>
+        <v>1.00274043520809</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1341,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="D68">
-        <v>0.999700059046958</v>
+        <v>1.00769584490989</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1355,7 +1355,7 @@
         <v>4</v>
       </c>
       <c r="D69">
-        <v>0.999937213486874</v>
+        <v>0.997562871365201</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1369,7 +1369,7 @@
         <v>4</v>
       </c>
       <c r="D70">
-        <v>0.990252209508186</v>
+        <v>1.00149232241465</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1383,7 +1383,7 @@
         <v>4</v>
       </c>
       <c r="D71">
-        <v>1.00025701123432</v>
+        <v>26375561.7222159</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1397,7 +1397,7 @@
         <v>4</v>
       </c>
       <c r="D72">
-        <v>1.00023037610074</v>
+        <v>0.998090987263132</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1411,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="D73">
-        <v>1.00010395785063</v>
+        <v>0.992618580623535</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1425,7 +1425,7 @@
         <v>4</v>
       </c>
       <c r="D74">
-        <v>1.00045728943477</v>
+        <v>0.99752795954926</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1439,7 +1439,7 @@
         <v>4</v>
       </c>
       <c r="D75">
-        <v>0.999889987527091</v>
+        <v>1.00041707997324</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1453,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="D76">
-        <v>0.999758044615371</v>
+        <v>0.999777110644167</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1467,7 +1467,7 @@
         <v>4</v>
       </c>
       <c r="D77">
-        <v>1.00149315487601</v>
+        <v>1.00003853282637</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1481,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="D78">
-        <v>0.999956714649122</v>
+        <v>1.00005184284096</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1495,7 +1495,7 @@
         <v>4</v>
       </c>
       <c r="D79">
-        <v>0.999654228793723</v>
+        <v>0.999881270512868</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1509,7 +1509,7 @@
         <v>4</v>
       </c>
       <c r="D80">
-        <v>0.999829293644729</v>
+        <v>1.00029520359973</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1523,7 +1523,7 @@
         <v>4</v>
       </c>
       <c r="D81">
-        <v>0.999574951799952</v>
+        <v>0.99975535762247</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1537,7 +1537,7 @@
         <v>4</v>
       </c>
       <c r="D82">
-        <v>1.00075075336206</v>
+        <v>0.999164531593814</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1551,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="D83">
-        <v>0.998885516345639</v>
+        <v>1.00751598367999</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1565,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="D84">
-        <v>1.00057366440149</v>
+        <v>1.0376828343219</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1579,7 +1579,7 @@
         <v>4</v>
       </c>
       <c r="D85">
-        <v>0.999970642433449</v>
+        <v>1.00206176497351</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1593,7 +1593,7 @@
         <v>4</v>
       </c>
       <c r="D86">
-        <v>1.00024962258788</v>
+        <v>1.0004574552994</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1607,7 +1607,7 @@
         <v>4</v>
       </c>
       <c r="D87">
-        <v>1.00044568948319</v>
+        <v>0.996885993277604</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1621,7 +1621,7 @@
         <v>4</v>
       </c>
       <c r="D88">
-        <v>0.999003631371585</v>
+        <v>0.998496078004543</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1635,7 +1635,7 @@
         <v>4</v>
       </c>
       <c r="D89">
-        <v>0.999865933006445</v>
+        <v>1.0013069151182</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1649,7 +1649,7 @@
         <v>4</v>
       </c>
       <c r="D90">
-        <v>0.999870400677976</v>
+        <v>1.0006290873533</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1663,7 +1663,7 @@
         <v>4</v>
       </c>
       <c r="D91">
-        <v>1.00004299447499</v>
+        <v>1.00274043485063</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1677,7 +1677,7 @@
         <v>4</v>
       </c>
       <c r="D92">
-        <v>0.999818044483027</v>
+        <v>1.00769584490989</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1691,7 +1691,7 @@
         <v>4</v>
       </c>
       <c r="D93">
-        <v>1.00021159062621</v>
+        <v>0.997562871356895</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1705,7 +1705,7 @@
         <v>4</v>
       </c>
       <c r="D94">
-        <v>0.996569936162487</v>
+        <v>1.00149232241231</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1719,7 +1719,7 @@
         <v>4</v>
       </c>
       <c r="D95">
-        <v>0.99981860399018</v>
+        <v>23963976.8655252</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1733,7 +1733,7 @@
         <v>4</v>
       </c>
       <c r="D96">
-        <v>0.999670919179146</v>
+        <v>0.998090987263132</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1747,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="D97">
-        <v>1.00043073784565</v>
+        <v>0.992618580623535</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1761,7 +1761,7 @@
         <v>4</v>
       </c>
       <c r="D98">
-        <v>0.999751747134553</v>
+        <v>0.997527959538116</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1775,7 +1775,7 @@
         <v>4</v>
       </c>
       <c r="D99">
-        <v>0.999681111389338</v>
+        <v>1.00041707997361</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1789,7 +1789,7 @@
         <v>4</v>
       </c>
       <c r="D100">
-        <v>1.00027335679366</v>
+        <v>0.999777110644167</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1803,7 +1803,7 @@
         <v>4</v>
       </c>
       <c r="D101">
-        <v>1.00014028424604</v>
+        <v>1.00003853282637</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1817,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="D102">
-        <v>0.999414036931687</v>
+        <v>1.00005184284096</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1831,7 +1831,7 @@
         <v>4</v>
       </c>
       <c r="D103">
-        <v>0.999732181618869</v>
+        <v>0.999881270512913</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1845,7 +1845,7 @@
         <v>4</v>
       </c>
       <c r="D104">
-        <v>1.00003137970142</v>
+        <v>1.00029520359967</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1859,7 +1859,7 @@
         <v>4</v>
       </c>
       <c r="D105">
-        <v>1.00001139599016</v>
+        <v>0.99975535762247</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1873,7 +1873,7 @@
         <v>4</v>
       </c>
       <c r="D106">
-        <v>0.99974503888488</v>
+        <v>0.999164531627347</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1887,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="D107">
-        <v>0.999902781688208</v>
+        <v>1.00751598358207</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1901,7 +1901,7 @@
         <v>4</v>
       </c>
       <c r="D108">
-        <v>1.00083289490446</v>
+        <v>1.03768283504065</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1915,7 +1915,7 @@
         <v>4</v>
       </c>
       <c r="D109">
-        <v>0.999397952770491</v>
+        <v>1.00206176462099</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1929,7 +1929,7 @@
         <v>4</v>
       </c>
       <c r="D110">
-        <v>1.00040955370931</v>
+        <v>1.0004574553072</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1943,7 +1943,7 @@
         <v>4</v>
       </c>
       <c r="D111">
-        <v>0.999370088777573</v>
+        <v>0.996885993299089</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1957,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="D112">
-        <v>0.999398604122663</v>
+        <v>0.998496078019769</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1971,7 +1971,7 @@
         <v>4</v>
       </c>
       <c r="D113">
-        <v>1.000042483342</v>
+        <v>1.00130691518073</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1985,7 +1985,7 @@
         <v>4</v>
       </c>
       <c r="D114">
-        <v>1.00017540578611</v>
+        <v>1.00062908719576</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1999,7 +1999,7 @@
         <v>4</v>
       </c>
       <c r="D115">
-        <v>1.0002803369804</v>
+        <v>1.00274043518753</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2013,7 +2013,7 @@
         <v>4</v>
       </c>
       <c r="D116">
-        <v>0.999957311927479</v>
+        <v>1.00769584490354</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2027,7 +2027,7 @@
         <v>4</v>
       </c>
       <c r="D117">
-        <v>0.999721284972949</v>
+        <v>0.997562872482119</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2041,7 +2041,7 @@
         <v>4</v>
       </c>
       <c r="D118">
-        <v>1.00001581883456</v>
+        <v>1.0014923223913</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2055,7 +2055,7 @@
         <v>4</v>
       </c>
       <c r="D119">
-        <v>1.00023899988904</v>
+        <v>539863.592848633</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2069,7 +2069,7 @@
         <v>4</v>
       </c>
       <c r="D120">
-        <v>1.0000116361046</v>
+        <v>0.998090987301168</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2083,7 +2083,7 @@
         <v>4</v>
       </c>
       <c r="D121">
-        <v>1.0004932221976</v>
+        <v>0.992618580756454</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2097,7 +2097,7 @@
         <v>4</v>
       </c>
       <c r="D122">
-        <v>0.999400869211094</v>
+        <v>0.997527959597886</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2111,7 +2111,7 @@
         <v>4</v>
       </c>
       <c r="D123">
-        <v>1.00207190150034</v>
+        <v>1.00041707909676</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2125,7 +2125,7 @@
         <v>4</v>
       </c>
       <c r="D124">
-        <v>0.999847978406583</v>
+        <v>0.999777110641467</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2139,7 +2139,7 @@
         <v>4</v>
       </c>
       <c r="D125">
-        <v>0.99934591274852</v>
+        <v>1.00003853282632</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2153,7 +2153,7 @@
         <v>4</v>
       </c>
       <c r="D126">
-        <v>1.00005463656964</v>
+        <v>1.00005184284101</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2167,7 +2167,7 @@
         <v>4</v>
       </c>
       <c r="D127">
-        <v>1.00039154721754</v>
+        <v>0.999881270512522</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2181,7 +2181,7 @@
         <v>4</v>
       </c>
       <c r="D128">
-        <v>0.999823288238779</v>
+        <v>1.00029520359884</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2195,7 +2195,7 @@
         <v>4</v>
       </c>
       <c r="D129">
-        <v>0.999902099580312</v>
+        <v>0.999755357672171</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2209,7 +2209,7 @@
         <v>4</v>
       </c>
       <c r="D130">
-        <v>1.00002925320869</v>
+        <v>0.999164531672981</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2223,7 +2223,7 @@
         <v>4</v>
       </c>
       <c r="D131">
-        <v>0.999696772623904</v>
+        <v>1.00751573303004</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2237,7 +2237,7 @@
         <v>4</v>
       </c>
       <c r="D132">
-        <v>0.999589700974184</v>
+        <v>1.0376828343219</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2251,7 +2251,7 @@
         <v>4</v>
       </c>
       <c r="D133">
-        <v>0.999552024721388</v>
+        <v>1.00206176414406</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2265,7 +2265,7 @@
         <v>4</v>
       </c>
       <c r="D134">
-        <v>0.999552478259329</v>
+        <v>1.00045745531495</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2279,7 +2279,7 @@
         <v>4</v>
       </c>
       <c r="D135">
-        <v>0.999253912087154</v>
+        <v>0.996885993277604</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2293,7 +2293,7 @@
         <v>4</v>
       </c>
       <c r="D136">
-        <v>0.999882641330766</v>
+        <v>0.998496078004543</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2307,7 +2307,7 @@
         <v>4</v>
       </c>
       <c r="D137">
-        <v>1.00012534756629</v>
+        <v>1.0013069151781</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2321,7 +2321,7 @@
         <v>4</v>
       </c>
       <c r="D138">
-        <v>1.00017664348524</v>
+        <v>1.00062908774399</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2335,7 +2335,7 @@
         <v>4</v>
       </c>
       <c r="D139">
-        <v>1.00027165073462</v>
+        <v>1.00274043494244</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2349,7 +2349,7 @@
         <v>4</v>
       </c>
       <c r="D140">
-        <v>1.00012085821271</v>
+        <v>1.00769584509544</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2363,7 +2363,7 @@
         <v>4</v>
       </c>
       <c r="D141">
-        <v>0.999818761221069</v>
+        <v>0.997562871404321</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2377,7 +2377,7 @@
         <v>4</v>
       </c>
       <c r="D142">
-        <v>0.999967113598343</v>
+        <v>1.00149232243605</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2391,7 +2391,7 @@
         <v>4</v>
       </c>
       <c r="D143">
-        <v>1.00025044151452</v>
+        <v>-19856633.1128404</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2405,7 +2405,7 @@
         <v>4</v>
       </c>
       <c r="D144">
-        <v>1.00005747909165</v>
+        <v>0.99809098729267</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2419,7 +2419,7 @@
         <v>4</v>
       </c>
       <c r="D145">
-        <v>0.999094914806479</v>
+        <v>0.9926185807247</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2433,7 +2433,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>0.99994793131721</v>
+        <v>0.997527959597886</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2447,7 +2447,7 @@
         <v>4</v>
       </c>
       <c r="D147">
-        <v>0.999043970120704</v>
+        <v>1.00041707991267</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2461,7 +2461,7 @@
         <v>4</v>
       </c>
       <c r="D148">
-        <v>1.00043545841477</v>
+        <v>0.999777110638148</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2475,7 +2475,7 @@
         <v>4</v>
       </c>
       <c r="D149">
-        <v>0.998882576529801</v>
+        <v>1.00003853282629</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2489,7 +2489,7 @@
         <v>4</v>
       </c>
       <c r="D150">
-        <v>1.00020892252889</v>
+        <v>1.00005184284101</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2503,7 +2503,7 @@
         <v>4</v>
       </c>
       <c r="D151">
-        <v>1.0001174340839</v>
+        <v>0.999881270512264</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2517,7 +2517,7 @@
         <v>4</v>
       </c>
       <c r="D152">
-        <v>1.00023097302224</v>
+        <v>1.00029520359393</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2531,7 +2531,7 @@
         <v>4</v>
       </c>
       <c r="D153">
-        <v>0.99992368881167</v>
+        <v>0.999755357640501</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2545,7 +2545,7 @@
         <v>4</v>
       </c>
       <c r="D154">
-        <v>0.99946552945929</v>
+        <v>0.999164531672981</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2559,7 +2559,7 @@
         <v>4</v>
       </c>
       <c r="D155">
-        <v>1.0006344540638</v>
+        <v>1.00751598367999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2573,7 +2573,7 @@
         <v>4</v>
       </c>
       <c r="D156">
-        <v>0.999942929582901</v>
+        <v>1.03768283422907</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2587,7 +2587,7 @@
         <v>4</v>
       </c>
       <c r="D157">
-        <v>0.999400385111206</v>
+        <v>1.00206176497351</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2601,7 +2601,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>0.999837673955578</v>
+        <v>1.0004574552994</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2615,7 +2615,7 @@
         <v>4</v>
       </c>
       <c r="D159">
-        <v>0.999767410894121</v>
+        <v>0.996885993277604</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2629,7 +2629,7 @@
         <v>4</v>
       </c>
       <c r="D160">
-        <v>0.999005690132456</v>
+        <v>0.998496078004543</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2643,7 +2643,7 @@
         <v>4</v>
       </c>
       <c r="D161">
-        <v>0.999938005747382</v>
+        <v>1.00130691511537</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2657,7 +2657,7 @@
         <v>4</v>
       </c>
       <c r="D162">
-        <v>1.0000034821548</v>
+        <v>1.00062908734811</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2671,7 +2671,7 @@
         <v>4</v>
       </c>
       <c r="D163">
-        <v>1.00020777334625</v>
+        <v>1.00274043549053</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2685,7 +2685,7 @@
         <v>4</v>
       </c>
       <c r="D164">
-        <v>1.00010602240817</v>
+        <v>1.00769584502788</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2699,7 +2699,7 @@
         <v>4</v>
       </c>
       <c r="D165">
-        <v>0.999965746285933</v>
+        <v>0.997562871404321</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2713,7 +2713,7 @@
         <v>4</v>
       </c>
       <c r="D166">
-        <v>0.990494287779114</v>
+        <v>1.00149232243605</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2727,7 +2727,7 @@
         <v>4</v>
       </c>
       <c r="D167">
-        <v>1.00026759183087</v>
+        <v>-24062605.9894566</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2741,7 +2741,7 @@
         <v>4</v>
       </c>
       <c r="D168">
-        <v>1.00019332481796</v>
+        <v>0.998090987292671</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2755,7 +2755,7 @@
         <v>4</v>
       </c>
       <c r="D169">
-        <v>0.999348841995063</v>
+        <v>0.9926185807247</v>
       </c>
     </row>
   </sheetData>
